--- a/src/main/data/微广数据字典.xlsx
+++ b/src/main/data/微广数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="9030"/>
+    <workbookView windowWidth="17280" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>用户表</t>
   </si>
@@ -130,6 +130,132 @@
   </si>
   <si>
     <t>用户类型,1：商家,2:普通用户</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>任务表</t>
+  </si>
+  <si>
+    <t>任务编号</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>任务名称</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>发布地址</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>任务人的头像</t>
+  </si>
+  <si>
+    <t>introduce</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>good_at</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>广告表</t>
+  </si>
+  <si>
+    <t>广告编号</t>
+  </si>
+  <si>
+    <t>广告名称</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>广告类型</t>
+  </si>
+  <si>
+    <t>公司icon</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>广告内容</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>公司表</t>
+  </si>
+  <si>
+    <t>公司编号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>公司类型</t>
+  </si>
+  <si>
+    <t>公司地址</t>
+  </si>
+  <si>
+    <t>公司图片</t>
+  </si>
+  <si>
+    <t>公司介绍</t>
+  </si>
+  <si>
+    <t>产品id</t>
+  </si>
+  <si>
+    <t>公司描述</t>
+  </si>
+  <si>
+    <t>擅长的事项</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>评分</t>
   </si>
 </sst>
 </file>
@@ -138,31 +264,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,59 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -244,9 +302,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,6 +319,35 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,12 +382,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -323,85 +442,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,98 +626,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -569,17 +688,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,21 +706,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,20 +727,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,157 +772,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,6 +962,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,10 +1315,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1452,9 +1587,794 @@
         <v>37</v>
       </c>
     </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4">
+        <v>50</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4">
+        <v>255</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4">
+        <v>50</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4">
+        <v>50</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4">
+        <v>255</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="4">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4">
+        <v>50</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="4">
+        <v>20</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="4">
+        <v>4</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="4">
+        <v>255</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="4">
+        <v>255</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="4">
+        <v>10</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="4">
+        <v>50</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="4">
+        <v>20</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="4">
+        <v>4</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="4">
+        <v>255</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="4">
+        <v>255</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="4">
+        <v>255</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="4">
+        <v>255</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="4">
+        <v>10</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A50:H50"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/data/微广数据字典.xlsx
+++ b/src/main/data/微广数据字典.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
-  <si>
-    <t>用户表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+  <si>
+    <t>用户表(user)</t>
   </si>
   <si>
     <t>列名</t>
@@ -147,7 +147,7 @@
     <t>创建时间</t>
   </si>
   <si>
-    <t>任务表</t>
+    <t>任务表(task)</t>
   </si>
   <si>
     <t>任务编号</t>
@@ -174,85 +174,91 @@
     <t>发布地址</t>
   </si>
   <si>
+    <t>introduce</t>
+  </si>
+  <si>
+    <t>任务介绍</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>任务描述</t>
+  </si>
+  <si>
+    <t>任务状态:1开启2:结束3:关闭</t>
+  </si>
+  <si>
+    <t>广告表(ad)</t>
+  </si>
+  <si>
+    <t>广告编号</t>
+  </si>
+  <si>
+    <t>广告名称</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>广告类型</t>
+  </si>
+  <si>
     <t>icon</t>
   </si>
   <si>
-    <t>任务人的头像</t>
-  </si>
-  <si>
-    <t>introduce</t>
+    <t>公司icon</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>广告内容</t>
+  </si>
+  <si>
+    <t>创建者</t>
+  </si>
+  <si>
+    <t>公司表(company)</t>
+  </si>
+  <si>
+    <t>公司编号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>公司类型</t>
+  </si>
+  <si>
+    <t>公司地址</t>
+  </si>
+  <si>
+    <t>公司图片</t>
+  </si>
+  <si>
+    <t>公司介绍</t>
   </si>
   <si>
     <t>product_id</t>
   </si>
   <si>
-    <t>description</t>
+    <t>产品id</t>
+  </si>
+  <si>
+    <t>公司描述</t>
   </si>
   <si>
     <t>good_at</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>广告表</t>
-  </si>
-  <si>
-    <t>广告编号</t>
-  </si>
-  <si>
-    <t>广告名称</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>广告类型</t>
-  </si>
-  <si>
-    <t>公司icon</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>广告内容</t>
+    <t>擅长的事项</t>
+  </si>
+  <si>
+    <t>score</t>
   </si>
   <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>公司表</t>
-  </si>
-  <si>
-    <t>公司编号</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>公司类型</t>
-  </si>
-  <si>
-    <t>公司地址</t>
-  </si>
-  <si>
-    <t>公司图片</t>
-  </si>
-  <si>
-    <t>公司介绍</t>
-  </si>
-  <si>
-    <t>产品id</t>
-  </si>
-  <si>
-    <t>公司描述</t>
-  </si>
-  <si>
-    <t>擅长的事项</t>
-  </si>
-  <si>
-    <t>score</t>
   </si>
   <si>
     <t>评分</t>
@@ -263,9 +269,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -277,26 +283,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,24 +306,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,10 +329,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,25 +396,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,14 +426,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -442,60 +448,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -538,12 +568,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -568,19 +592,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,24 +629,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,11 +707,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,30 +757,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,21 +785,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -798,6 +795,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -806,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,133 +824,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1315,9 +1321,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
@@ -1756,11 +1762,9 @@
         <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="4">
-        <v>255</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1774,446 +1778,442 @@
         <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="4">
-        <v>50</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4">
+        <v>50</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="4">
-        <v>255</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="4">
-        <v>10</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5" t="s">
-        <v>42</v>
+      <c r="C37" s="4">
+        <v>20</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
+      <c r="A38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="4">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C39" s="4">
+        <v>255</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="4">
-        <v>50</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C41" s="4">
-        <v>20</v>
-      </c>
-      <c r="D41" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="4">
-        <v>4</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="5">
+        <v>50</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="4">
+        <v>50</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="4">
-        <v>255</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="4">
-        <v>255</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="4">
-        <v>10</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
+      <c r="C50" s="4">
+        <v>20</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="4">
         <v>4</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="4" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C52" s="4">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="4">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C54" s="4">
-        <v>4</v>
-      </c>
-      <c r="D54" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="4" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C55" s="4">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>14</v>
@@ -2226,71 +2226,67 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="4" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="4">
-        <v>255</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="4" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="4">
-        <v>11</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="4" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C59" s="4">
-        <v>255</v>
-      </c>
-      <c r="D59" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2298,83 +2294,49 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4" t="s">
-        <v>79</v>
+      <c r="A61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="4">
+      <c r="A62" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="4">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5" t="s">
-        <v>42</v>
+      <c r="C62" s="5">
+        <v>50</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A47:H47"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/data/微广数据字典.xlsx
+++ b/src/main/data/微广数据字典.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>用户表(user)</t>
   </si>
@@ -153,40 +153,40 @@
     <t>任务编号</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>任务名称</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>发布地址</t>
+  </si>
+  <si>
+    <t>introduce</t>
+  </si>
+  <si>
+    <t>任务介绍</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>任务描述</t>
+  </si>
+  <si>
+    <t>任务状态:1开启2:结束3:关闭</t>
+  </si>
+  <si>
     <t>user_id</t>
   </si>
   <si>
-    <t>用户编号</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>任务名称</t>
-  </si>
-  <si>
-    <t>任务类型</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>发布地址</t>
-  </si>
-  <si>
-    <t>introduce</t>
-  </si>
-  <si>
-    <t>任务介绍</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>任务描述</t>
-  </si>
-  <si>
-    <t>任务状态:1开启2:结束3:关闭</t>
+    <t>创建者</t>
   </si>
   <si>
     <t>广告表(ad)</t>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>广告内容</t>
-  </si>
-  <si>
-    <t>创建者</t>
   </si>
   <si>
     <t>公司表(company)</t>
@@ -1321,10 +1318,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1690,10 +1687,10 @@
         <v>45</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C23" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1705,31 +1702,31 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1744,11 +1741,9 @@
         <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="4">
-        <v>20</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1775,327 +1770,347 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C28" s="4">
+        <v>10</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="4">
-        <v>10</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
-        <v>40</v>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <v>50</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C35" s="4">
+        <v>50</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C36" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C37" s="4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C38" s="4">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="4">
-        <v>255</v>
-      </c>
-      <c r="D39" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C40" s="4">
+        <v>10</v>
+      </c>
       <c r="D40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="4">
-        <v>10</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>40</v>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C43" s="5">
+        <v>50</v>
+      </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="5">
-        <v>50</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
+      <c r="A47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C48" s="4">
+        <v>50</v>
+      </c>
+      <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C49" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
         <v>68</v>
@@ -2103,13 +2118,13 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2121,13 +2136,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C51" s="4">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2139,7 +2154,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>14</v>
@@ -2157,15 +2172,17 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C53" s="4">
         <v>255</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -2175,33 +2192,31 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C54" s="4">
-        <v>255</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="4" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C55" s="4">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -2213,28 +2228,26 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="4">
-        <v>255</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2242,101 +2255,85 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="4" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="4">
-        <v>10</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="A60" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
-        <v>40</v>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C61" s="5">
+        <v>50</v>
+      </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="5">
-        <v>50</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A46:H46"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/data/微广数据字典.xlsx
+++ b/src/main/data/微广数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="9030"/>
+    <workbookView windowWidth="28080" windowHeight="14850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>用户表(user)</t>
   </si>
@@ -259,6 +259,60 @@
   </si>
   <si>
     <t>评分</t>
+  </si>
+  <si>
+    <t>公司类型表(company_type)</t>
+  </si>
+  <si>
+    <t>公司类型编号</t>
+  </si>
+  <si>
+    <t>类型名称</t>
+  </si>
+  <si>
+    <t>updateDate</t>
+  </si>
+  <si>
+    <t>createDate</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>公司产品表(company_product)</t>
+  </si>
+  <si>
+    <t>产品编号</t>
+  </si>
+  <si>
+    <t>company_id</t>
+  </si>
+  <si>
+    <t>公司id</t>
+  </si>
+  <si>
+    <t>产品描述</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>resource_id</t>
+  </si>
+  <si>
+    <t>资源id</t>
+  </si>
+  <si>
+    <t>相关资源表(resource)</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>资源地址</t>
   </si>
 </sst>
 </file>
@@ -266,9 +320,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -282,6 +336,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,29 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -361,6 +415,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,30 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -445,187 +499,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,6 +812,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -781,26 +855,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -809,10 +863,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,133 +875,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1318,10 +1372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2328,12 +2382,531 @@
         <v>56</v>
       </c>
     </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="4">
+        <v>50</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="4">
+        <v>20</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="5">
+        <v>50</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="4">
+        <v>50</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="4">
+        <v>50</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="4">
+        <v>255</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="4">
+        <v>20</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="4">
+        <v>50</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="4">
+        <v>2</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="5">
+        <v>50</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="4">
+        <v>50</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="4">
+        <v>50</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="4">
+        <v>20</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="4">
+        <v>2</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="5">
+        <v>50</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A85:H85"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/data/微广数据字典.xlsx
+++ b/src/main/data/微广数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14850"/>
+    <workbookView windowWidth="18480" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,10 +320,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -456,9 +456,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,8 +470,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,6 +499,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -511,61 +529,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,13 +607,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,91 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,10 +863,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,133 +875,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,7 +1374,7 @@
   <sheetPr/>
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
